--- a/m11/unityProject/Assets/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
+++ b/m11/unityProject/Assets/app/0100_Base/UIControl/state/doc/UITest01Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C5CBA-49F8-4E8A-B8D1-25E725148C21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3169D-575B-4D15-BD2B-DF80E0C1298A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>thumbnail</t>
   </si>
@@ -131,9 +131,6 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>640,830</t>
-  </si>
-  <si>
     <t>set_parent();</t>
   </si>
   <si>
@@ -237,11 +234,6 @@
   </si>
   <si>
     <t>!dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CenterPanel/
-(477,97)
-</t>
   </si>
   <si>
     <t>!uuid</t>
@@ -582,8 +574,31 @@
 @@@</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/17 13:48:45
-; * pssgEditor version : 0.7.0.9a6cf3a02284fb1ede951b9a71d62db3cd613517
+    <t>S_BUT05</t>
+  </si>
+  <si>
+    <t>button 05 作成</t>
+  </si>
+  <si>
+    <t>BUT05</t>
+  </si>
+  <si>
+    <t>0,-500</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>/CenterPanel/
+(477,75)
+パネルとボタン作成</t>
+  </si>
+  <si>
+    <t>640,1136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/18 11:07:16
+; * pssgEditor version : 0.7.0.c45d4ead4b1995a4369ae1b5d0ab6e1c31b12889
 psggfile=@@@
 UITest01Control.psgg
 @@@
@@ -608,7 +623,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":777,"y":73}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1714,"y":101.333344}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":777,"y":73}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1871.64709,"y":88.3921661}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}},{"Key":"S_BUT05","Value":{"x":1621.76477,"y":97.7646942}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -998,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,6 +1157,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1430,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1444,7 +1468,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
         <v>0</v>
@@ -1468,23 +1492,26 @@
       <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+      <c r="L1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="A2" s="26"/>
       <c r="B2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>7</v>
@@ -1501,29 +1528,32 @@
       <c r="K2" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="37.5">
+      <c r="L2" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="37.5">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>26</v>
@@ -1534,17 +1564,20 @@
       <c r="K3" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L3" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="17" t="s">
@@ -1560,13 +1593,16 @@
         <v>25</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1">
+      <c r="L4" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
       <c r="C5" s="31"/>
@@ -1578,11 +1614,12 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="31"/>
@@ -1595,11 +1632,12 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1610,8 +1648,9 @@
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1">
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="31"/>
@@ -1623,14 +1662,15 @@
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1">
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1">
       <c r="A9" s="31"/>
       <c r="B9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="33"/>
@@ -1645,19 +1685,22 @@
         <v>22</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1">
+      <c r="L9" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1">
       <c r="A10" s="31"/>
       <c r="B10" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="33"/>
@@ -1677,18 +1720,21 @@
       <c r="K10" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1">
+      <c r="L10" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1">
       <c r="A11" s="31"/>
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="31"/>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
       <c r="G11" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>18</v>
@@ -1702,11 +1748,14 @@
       <c r="K11" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1">
+      <c r="L11" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1">
       <c r="A12" s="31"/>
       <c r="B12" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="31"/>
@@ -1725,13 +1774,16 @@
         <v>19</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1">
+        <v>80</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1">
       <c r="A13" s="31"/>
       <c r="B13" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -1752,11 +1804,14 @@
       <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1">
+      <c r="L13" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1">
       <c r="A14" s="31"/>
       <c r="B14" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1777,11 +1832,14 @@
       <c r="K14" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1">
+      <c r="L14" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="A15" s="31"/>
       <c r="B15" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1797,11 +1855,14 @@
         <v>22</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1">
+      <c r="L15" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1">
       <c r="A16" s="31"/>
       <c r="B16" s="37"/>
       <c r="C16" s="31"/>
@@ -1813,8 +1874,9 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1">
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1">
       <c r="A17" s="31"/>
       <c r="B17" s="37"/>
       <c r="C17" s="31"/>
@@ -1826,8 +1888,9 @@
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1">
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1">
       <c r="A18" s="31"/>
       <c r="B18" s="37"/>
       <c r="C18" s="31"/>
@@ -1839,8 +1902,9 @@
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1">
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1">
       <c r="A19" s="31"/>
       <c r="B19" s="37"/>
       <c r="C19" s="31"/>
@@ -1852,8 +1916,9 @@
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1">
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1">
       <c r="A20" s="31"/>
       <c r="B20" s="37"/>
       <c r="C20" s="31"/>
@@ -1865,8 +1930,9 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1">
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1">
       <c r="A21" s="31"/>
       <c r="B21" s="37"/>
       <c r="C21" s="31"/>
@@ -1878,11 +1944,12 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="31"/>
       <c r="B22" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -1893,11 +1960,12 @@
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1">
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" s="8" customFormat="1">
       <c r="A23" s="31"/>
       <c r="B23" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -1908,11 +1976,12 @@
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1">
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1">
       <c r="A24" s="31"/>
       <c r="B24" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -1923,11 +1992,12 @@
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1">
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" s="8" customFormat="1">
       <c r="A25" s="31"/>
       <c r="B25" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -1938,8 +2008,9 @@
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1">
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1">
       <c r="A26" s="31"/>
       <c r="B26" s="35" t="s">
         <v>1</v>
@@ -1953,13 +2024,14 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="8" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" s="8" customFormat="1">
       <c r="A27" s="31"/>
       <c r="B27" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
@@ -1970,11 +2042,12 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1">
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1">
       <c r="A28" s="42"/>
       <c r="B28" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -1985,11 +2058,12 @@
       <c r="I28" s="43"/>
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="44"/>
       <c r="B29" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -2000,8 +2074,9 @@
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -2013,11 +2088,12 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="56.25">
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="75">
       <c r="A31" s="46"/>
       <c r="B31" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="13" t="s">
@@ -2030,25 +2106,28 @@
         <v>14</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" ht="18.75" customHeight="1">
+        <v>79</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="46"/>
       <c r="B32" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="13" t="s">
@@ -2073,7 +2152,10 @@
         <v>28</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="L32" s="46" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="48" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2214,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
